--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4EE8DC-A833-614D-B5A4-DFC41F05347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F052884-7926-B642-9163-38EEFD7A4FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="1680" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Location" sheetId="1" r:id="rId1"/>
-    <sheet name="npc" sheetId="2" r:id="rId2"/>
+    <sheet name="location" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="3" r:id="rId2"/>
+    <sheet name="container" sheetId="4" r:id="rId3"/>
+    <sheet name="npc" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -215,13 +217,151 @@
   </si>
   <si>
     <t>chowhall</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>useResponse</t>
+  </si>
+  <si>
+    <t>M16 Assault Rifle</t>
+  </si>
+  <si>
+    <t>You shoot your rifle in the air in celebration</t>
+  </si>
+  <si>
+    <t>uncrustable</t>
+  </si>
+  <si>
+    <t>You look lovingly at the peanut butter and jelly sandwich</t>
+  </si>
+  <si>
+    <t>CamelBack</t>
+  </si>
+  <si>
+    <t>You take a refreshing drink of moldy water</t>
+  </si>
+  <si>
+    <t>Pt Belt</t>
+  </si>
+  <si>
+    <t>You put it on and are now super safe and visible</t>
+  </si>
+  <si>
+    <t>Natural Lime WhiteClaw</t>
+  </si>
+  <si>
+    <t>You take a refreshing drink of Natural Lime</t>
+  </si>
+  <si>
+    <t>Black Cherry WhiteClaw</t>
+  </si>
+  <si>
+    <t>You take a refreshing drink of Black Cherry</t>
+  </si>
+  <si>
+    <t>Ruby Grapefruit WhiteClaw</t>
+  </si>
+  <si>
+    <t>You take a refreshing drink of Ruby Grapefruit</t>
+  </si>
+  <si>
+    <t>Mango WhiteClaw</t>
+  </si>
+  <si>
+    <t>You take a refreshing drink of Watermelon</t>
+  </si>
+  <si>
+    <t>Sick call slip</t>
+  </si>
+  <si>
+    <t>You enjoy your soft shoe profile</t>
+  </si>
+  <si>
+    <t>Expert Marksmanship Badge</t>
+  </si>
+  <si>
+    <t>You can make things more deader better</t>
+  </si>
+  <si>
+    <t>Combat Life Saver Badge</t>
+  </si>
+  <si>
+    <t>You can make things less deader better</t>
+  </si>
+  <si>
+    <t>Physical Training Badge</t>
+  </si>
+  <si>
+    <t>You showed up for the pt test</t>
+  </si>
+  <si>
+    <t>AIT Challenge Coin</t>
+  </si>
+  <si>
+    <t>It says 'Play the Game'</t>
+  </si>
+  <si>
+    <t>A loving Kiss</t>
+  </si>
+  <si>
+    <t>You're head is foggy from romance, or is it the WhiteClaws?</t>
+  </si>
+  <si>
+    <t>useRespone</t>
+  </si>
+  <si>
+    <t>Ammo Box</t>
+  </si>
+  <si>
+    <t>Full of brass and whiteclaws</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Just your hopes and dreams</t>
+  </si>
+  <si>
+    <t>IFAK</t>
+  </si>
+  <si>
+    <t>You feel very healthy after using the individual first aid kit</t>
+  </si>
+  <si>
+    <t>Ceiling Tile</t>
+  </si>
+  <si>
+    <t>It's dusty up here</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your personal safe place </t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>Barracks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +372,13 @@
     <font>
       <sz val="14"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,9 +404,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,103 +722,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C858C57-114F-F547-B796-5E0DB4646590}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="230.33203125" customWidth="1"/>
+    <col min="1" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="230.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -680,6 +912,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2728922-B5F2-1D40-925B-F0E79ABFBC57}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E0687-E957-D34F-A426-1F77844B1C49}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F03C60-A5E6-0E49-A85D-9692C498EA4D}">
   <dimension ref="A1:D11"/>
   <sheetViews>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F052884-7926-B642-9163-38EEFD7A4FB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B3940-054A-1142-8E05-06BAA5CD38A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="35840" windowHeight="19620" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Drill SGT Spitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barracks </t>
   </si>
   <si>
     <t>PX</t>
@@ -725,7 +722,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,16 +736,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -756,154 +753,154 @@
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -927,136 +924,136 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1081,50 +1078,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1158,147 +1155,147 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B3940-054A-1142-8E05-06BAA5CD38A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D10B46-46D2-514C-9139-843F9CF8536E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="35840" windowHeight="19620" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
     <sheet name="item" sheetId="3" r:id="rId2"/>
     <sheet name="container" sheetId="4" r:id="rId3"/>
-    <sheet name="npc" sheetId="2" r:id="rId4"/>
+    <sheet name="npc" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -114,9 +114,6 @@
     <t>Drill_PT</t>
   </si>
   <si>
-    <t>Drill_LandNav</t>
-  </si>
-  <si>
     <t>Drill_Range</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>Barracks</t>
+  </si>
+  <si>
+    <t>Drill_CLS</t>
   </si>
 </sst>
 </file>
@@ -401,10 +401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C858C57-114F-F547-B796-5E0DB4646590}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -736,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -765,7 +766,7 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -803,7 +804,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -820,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -839,7 +840,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -924,136 +925,136 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1078,50 +1079,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1130,172 +1131,174 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F03C60-A5E6-0E49-A85D-9692C498EA4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF017B32-F13C-9940-ADCC-028F3D0515B4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="67.5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="62.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="21.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D10B46-46D2-514C-9139-843F9CF8536E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7A525-F49B-3241-A070-259C2096343B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="location" sheetId="1" r:id="rId1"/>
     <sheet name="item" sheetId="3" r:id="rId2"/>
-    <sheet name="container" sheetId="4" r:id="rId3"/>
+    <sheet name="container" sheetId="6" r:id="rId3"/>
     <sheet name="npc" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -135,9 +135,6 @@
     <t>Drill SGT Dicks</t>
   </si>
   <si>
-    <t>Drill SGT Nogo</t>
-  </si>
-  <si>
     <t>Drill SGT Hawkeyes</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t xml:space="preserve">is looking for </t>
   </si>
   <si>
-    <t xml:space="preserve">is mark off </t>
-  </si>
-  <si>
     <t xml:space="preserve">is fixing </t>
   </si>
   <si>
@@ -309,15 +303,9 @@
     <t>Ammo Box</t>
   </si>
   <si>
-    <t>Full of brass and whiteclaws</t>
-  </si>
-  <si>
     <t>Trash Can</t>
   </si>
   <si>
-    <t>Just your hopes and dreams</t>
-  </si>
-  <si>
     <t>IFAK</t>
   </si>
   <si>
@@ -327,15 +315,9 @@
     <t>Ceiling Tile</t>
   </si>
   <si>
-    <t>It's dusty up here</t>
-  </si>
-  <si>
     <t>Foot Locker</t>
   </si>
   <si>
-    <t xml:space="preserve">your personal safe place </t>
-  </si>
-  <si>
     <t>EAST</t>
   </si>
   <si>
@@ -352,6 +334,51 @@
   </si>
   <si>
     <t>Drill_CLS</t>
+  </si>
+  <si>
+    <t>Miliatry Clothing &amp; Class 5</t>
+  </si>
+  <si>
+    <t>Natural Lime WhiteClaw,Ruby Grapefruit WhiteClaw,Black Cherry WhiteClaw</t>
+  </si>
+  <si>
+    <t>M16 Assault Rifle, CamelBack,Sick call slip</t>
+  </si>
+  <si>
+    <t>Natural Lime WhiteClaw,Ruby Grapefruit WhiteClaw,Black Cherry WhiteClaw,Mango WhiteClaw,Diamond Ring</t>
+  </si>
+  <si>
+    <t>ItemInContainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>laundry room</t>
+  </si>
+  <si>
+    <t>Sick Call Slip</t>
+  </si>
+  <si>
+    <t>contain full of brass and whiteclaws</t>
+  </si>
+  <si>
+    <t>just full of your hopes and dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be your personal safe place </t>
+  </si>
+  <si>
+    <t>is a place always rips you off</t>
+  </si>
+  <si>
+    <t>is a perfect place to hide contrabands</t>
+  </si>
+  <si>
+    <t>Drill SGT Tourniquette</t>
+  </si>
+  <si>
+    <t>is CLS instructor and will add game interface here</t>
   </si>
 </sst>
 </file>
@@ -737,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -766,7 +793,7 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -804,7 +831,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -821,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -840,7 +867,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -914,147 +941,147 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1064,65 +1091,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E0687-E957-D34F-A426-1F77844B1C49}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AEA802-0E88-B24C-A9B4-36B13C3531BC}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="3" max="3" width="96.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1135,12 +1211,12 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="21.33203125" style="3" customWidth="1"/>
@@ -1155,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -1166,10 +1242,10 @@
         <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1180,10 +1256,10 @@
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1194,10 +1270,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1205,27 +1281,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -1233,13 +1309,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -1247,13 +1323,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1261,13 +1337,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1275,13 +1351,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1289,16 +1365,16 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7A525-F49B-3241-A070-259C2096343B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1711DE7E-A0F3-4B4A-8221-85B36BF1882A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38380" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
-    <sheet name="location" sheetId="1" r:id="rId1"/>
-    <sheet name="item" sheetId="3" r:id="rId2"/>
-    <sheet name="container" sheetId="6" r:id="rId3"/>
-    <sheet name="npc" sheetId="5" r:id="rId4"/>
+    <sheet name="objInGame" sheetId="7" r:id="rId1"/>
+    <sheet name="location" sheetId="1" r:id="rId2"/>
+    <sheet name="item" sheetId="3" r:id="rId3"/>
+    <sheet name="container" sheetId="6" r:id="rId4"/>
+    <sheet name="npc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -237,27 +238,15 @@
     <t>You put it on and are now super safe and visible</t>
   </si>
   <si>
-    <t>Natural Lime WhiteClaw</t>
-  </si>
-  <si>
     <t>You take a refreshing drink of Natural Lime</t>
   </si>
   <si>
-    <t>Black Cherry WhiteClaw</t>
-  </si>
-  <si>
     <t>You take a refreshing drink of Black Cherry</t>
   </si>
   <si>
-    <t>Ruby Grapefruit WhiteClaw</t>
-  </si>
-  <si>
     <t>You take a refreshing drink of Ruby Grapefruit</t>
   </si>
   <si>
-    <t>Mango WhiteClaw</t>
-  </si>
-  <si>
     <t>You take a refreshing drink of Watermelon</t>
   </si>
   <si>
@@ -339,9 +328,6 @@
     <t>Miliatry Clothing &amp; Class 5</t>
   </si>
   <si>
-    <t>Natural Lime WhiteClaw,Ruby Grapefruit WhiteClaw,Black Cherry WhiteClaw</t>
-  </si>
-  <si>
     <t>M16 Assault Rifle, CamelBack,Sick call slip</t>
   </si>
   <si>
@@ -357,9 +343,6 @@
     <t>laundry room</t>
   </si>
   <si>
-    <t>Sick Call Slip</t>
-  </si>
-  <si>
     <t>contain full of brass and whiteclaws</t>
   </si>
   <si>
@@ -379,6 +362,57 @@
   </si>
   <si>
     <t>is CLS instructor and will add game interface here</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Natural Lime White Claw</t>
+  </si>
+  <si>
+    <t>Black Cherry White Claw</t>
+  </si>
+  <si>
+    <t>Ruby Grapefruit White Claw</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>interact</t>
+  </si>
+  <si>
+    <t>get/use</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>rucksack</t>
+  </si>
+  <si>
+    <t>Sick Call Slip,uncrustable</t>
+  </si>
+  <si>
+    <t>Mango White Claw</t>
+  </si>
+  <si>
+    <t>Natural Lime White Claw,Ruby Grapefruit White Claw,Black Cherry White Claw</t>
   </si>
 </sst>
 </file>
@@ -746,11 +780,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C858C57-114F-F547-B796-5E0DB4646590}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -793,7 +1032,7 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -831,7 +1070,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -848,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -867,7 +1106,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -936,12 +1175,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2728922-B5F2-1D40-925B-F0E79ABFBC57}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,91 +1236,91 @@
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -1090,12 +1329,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AEA802-0E88-B24C-A9B4-36B13C3531BC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,24 +1350,24 @@
         <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -1136,10 +1375,10 @@
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>65</v>
@@ -1150,38 +1389,38 @@
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1189,13 +1428,13 @@
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1206,12 +1445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF017B32-F13C-9940-ADCC-028F3D0515B4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,16 +1520,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1711DE7E-A0F3-4B4A-8221-85B36BF1882A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7212A80D-30AE-D942-9069-11D60EB637FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38380" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>Natural Lime White Claw,Ruby Grapefruit White Claw,Black Cherry White Claw</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>game</t>
   </si>
 </sst>
 </file>
@@ -781,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +802,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -815,8 +821,11 @@
       <c r="F1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -835,8 +844,11 @@
       <c r="F2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -853,7 +865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -870,7 +882,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -887,7 +899,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -901,7 +913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -915,7 +927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -926,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -937,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -948,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -959,22 +971,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
@@ -1333,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AEA802-0E88-B24C-A9B4-36B13C3531BC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7212A80D-30AE-D942-9069-11D60EB637FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73585147-D64A-A845-9138-E5E7BDD9A146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38380" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="1080" yWindow="540" windowWidth="35840" windowHeight="20420" activeTab="4" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF017B32-F13C-9940-ADCC-028F3D0515B4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,7 +1524,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73585147-D64A-A845-9138-E5E7BDD9A146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992B854-04C4-8D4B-9E49-AE5D83F1EC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="540" windowWidth="35840" windowHeight="20420" activeTab="4" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="2" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="item" sheetId="3" r:id="rId3"/>
     <sheet name="container" sheetId="6" r:id="rId4"/>
     <sheet name="npc" sheetId="5" r:id="rId5"/>
+    <sheet name="miniGame" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="141">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -205,9 +206,6 @@
     <t>portajohn</t>
   </si>
   <si>
-    <t>chowhall</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -256,12 +254,6 @@
     <t>You enjoy your soft shoe profile</t>
   </si>
   <si>
-    <t>Expert Marksmanship Badge</t>
-  </si>
-  <si>
-    <t>You can make things more deader better</t>
-  </si>
-  <si>
     <t>Combat Life Saver Badge</t>
   </si>
   <si>
@@ -331,9 +323,6 @@
     <t>M16 Assault Rifle, CamelBack,Sick call slip</t>
   </si>
   <si>
-    <t>Natural Lime WhiteClaw,Ruby Grapefruit WhiteClaw,Black Cherry WhiteClaw,Mango WhiteClaw,Diamond Ring</t>
-  </si>
-  <si>
     <t>ItemInContainer</t>
   </si>
   <si>
@@ -419,13 +408,64 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>Safety Brief</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range </t>
+  </si>
+  <si>
+    <t>Always point your rifle down range, click to shoot, if yo cannot shoot, you probably very good at doing details</t>
+  </si>
+  <si>
+    <t>CLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always wear your PT belt to stay safe, use your Racquet to hit the bouncing ball only! Don't use it on your battle buddies, if you fail the game, you will be voluntold to details   </t>
+  </si>
+  <si>
+    <t>You must find at least 70% right answer in order to pass the exam, if you fail the exam, you are going to do some "corrective training" with me</t>
+  </si>
+  <si>
+    <t>Army Marksmanship Expert Badge</t>
+  </si>
+  <si>
+    <t>Army Marksmanship Sharp Shooter Badge</t>
+  </si>
+  <si>
+    <t>Army Marksmanship Qualification Badge</t>
+  </si>
+  <si>
+    <t>you can make things more deader better than most jokers in your platoon</t>
+  </si>
+  <si>
+    <t>at least you hit a bit more than half targets at Range</t>
+  </si>
+  <si>
+    <t>you feel like your are the most lethal weapon of United State Army</t>
+  </si>
+  <si>
+    <t>chow hall</t>
+  </si>
+  <si>
+    <t>Natural Lime White Claw,Ruby Grapefruit White Claw,Black Cherry White Claw,Mango White Claw,Diamond Ring</t>
+  </si>
+  <si>
+    <t>It's size is twice as big as your pay check</t>
+  </si>
+  <si>
+    <t>diamond ring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +486,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,11 +514,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,208 +834,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
       <c r="G1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19">
       <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19">
       <c r="C13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19">
       <c r="C14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19">
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="19">
+      <c r="C17" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="19">
+      <c r="C18" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1004,33 +1066,33 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="230.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,9 +1104,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1060,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1076,13 +1138,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1094,12 +1156,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1108,7 +1170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1118,13 +1180,13 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1189,152 +1251,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2728922-B5F2-1D40-925B-F0E79ABFBC57}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="19">
+      <c r="A14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19">
+      <c r="A16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="19">
+      <c r="A17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="19">
+      <c r="A18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1346,10 +1431,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="62.5" customWidth="1"/>
@@ -1357,96 +1442,96 @@
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1461,11 +1546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF017B32-F13C-9940-ADCC-028F3D0515B4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" style="3" customWidth="1"/>
@@ -1474,7 +1559,7 @@
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -1516,7 +1601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1530,21 +1615,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -1558,7 +1643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +1671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1600,7 +1685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1614,7 +1699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -1622,10 +1707,58 @@
         <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74728878-3D81-8E45-A835-A09EDB26C846}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="145" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7992B854-04C4-8D4B-9E49-AE5D83F1EC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72B1DD-107D-874E-9FB5-7C18752F3FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" activeTab="2" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38360" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>diamond ring</t>
+  </si>
+  <si>
+    <t>Drill SGT Tourniquet</t>
   </si>
 </sst>
 </file>
@@ -836,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -931,7 +934,7 @@
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -1253,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2728922-B5F2-1D40-925B-F0E79ABFBC57}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F72B1DD-107D-874E-9FB5-7C18752F3FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059D0B0-7BFE-314B-A74A-288CDC3BCC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38360" yWindow="500" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38360" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="5" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -419,18 +419,9 @@
     <t xml:space="preserve">Range </t>
   </si>
   <si>
-    <t>Always point your rifle down range, click to shoot, if yo cannot shoot, you probably very good at doing details</t>
-  </si>
-  <si>
     <t>CLS</t>
   </si>
   <si>
-    <t xml:space="preserve">Always wear your PT belt to stay safe, use your Racquet to hit the bouncing ball only! Don't use it on your battle buddies, if you fail the game, you will be voluntold to details   </t>
-  </si>
-  <si>
-    <t>You must find at least 70% right answer in order to pass the exam, if you fail the exam, you are going to do some "corrective training" with me</t>
-  </si>
-  <si>
     <t>Army Marksmanship Expert Badge</t>
   </si>
   <si>
@@ -462,6 +453,15 @@
   </si>
   <si>
     <t>Drill SGT Tourniquet</t>
+  </si>
+  <si>
+    <t>Always point your rifle down range; click to shoot; if you cannot shoot, you are probably very good at doing details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always wear your PT belt to stay safe; use your Racquet to hit the bouncing ball only! Don't use it on your battle buddies; if you fail the game, you will be voluntold to details   </t>
+  </si>
+  <si>
+    <t>You must find at least 70% right answer in order to pass the exam; if you fail the exam, you are going to do some "corrective training" with me</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +934,7 @@
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -1038,22 +1038,22 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="19">
       <c r="C17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="19">
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1394,34 +1394,34 @@
     </row>
     <row r="15" spans="1:3" ht="19">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19">
       <c r="A16" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1534,7 @@
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1710,7 +1710,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1725,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74728878-3D81-8E45-A835-A09EDB26C846}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1745,7 +1745,7 @@
         <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1753,15 +1753,15 @@
         <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D059D0B0-7BFE-314B-A74A-288CDC3BCC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B9F9C-8259-9749-9F71-C1C9B5C1E9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38360" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="5" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38400" yWindow="900" windowWidth="35840" windowHeight="20420" activeTab="3" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -462,13 +462,25 @@
   </si>
   <si>
     <t>You must find at least 70% right answer in order to pass the exam; if you fail the exam, you are going to do some "corrective training" with me</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>check for SOM game</t>
+  </si>
+  <si>
+    <t>Soldier of Month Certificate</t>
+  </si>
+  <si>
+    <t>Sham Perks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +508,17 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -517,12 +540,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1054,6 +1079,11 @@
     <row r="18" spans="3:3" ht="19">
       <c r="C18" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1254,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2728922-B5F2-1D40-925B-F0E79ABFBC57}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1424,6 +1454,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1431,17 +1469,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AEA802-0E88-B24C-A9B4-36B13C3531BC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="62.5" customWidth="1"/>
-    <col min="3" max="3" width="96.1640625" customWidth="1"/>
+    <col min="3" max="3" width="99.5" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,6 +1576,20 @@
       </c>
       <c r="D7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74728878-3D81-8E45-A835-A09EDB26C846}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5169BCC-DCF7-CE4B-AF5C-1874C4823251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11161036-5A9B-674A-ABCB-C1F36A1EFE73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="npc" sheetId="5" r:id="rId6"/>
     <sheet name="miniGame" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="150">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -57,9 +57,6 @@
     <t>there is nothing in this direction</t>
   </si>
   <si>
-    <t>It smells of gym socks and peanut butter.</t>
-  </si>
-  <si>
     <t>GYM</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Laundry Room</t>
   </si>
   <si>
-    <t>Oxyclean and bleach are the scents noticed in this area. Stuffed in the corner is a copious amount of green laundry bags</t>
-  </si>
-  <si>
     <t>Courtyard</t>
   </si>
   <si>
@@ -87,24 +81,15 @@
     <t>PortaJohn</t>
   </si>
   <si>
-    <t>It smells of elephant flatulence and rotting garbage.</t>
-  </si>
-  <si>
     <t>Your stomach grumbles as you pass by the variety of fried foods in the red categorized section. You're tempted to pocket some tater tots.</t>
   </si>
   <si>
     <t>Chow Hall</t>
   </si>
   <si>
-    <t>see a Barber Shop, Eyebrow Threading station, and a GNC.You look far to the WEST and see a silhouette of a full-bodied individual.</t>
-  </si>
-  <si>
     <t>Gazebo</t>
   </si>
   <si>
-    <t>at first glance, you don’t see anything through the misty night. but out from the shadows appears your AIT lover - You’re elated. They ask, “How many white claws did you bring me?</t>
-  </si>
-  <si>
     <t>NPC_Properties</t>
   </si>
   <si>
@@ -159,33 +144,9 @@
     <t>chowHallLady</t>
   </si>
   <si>
-    <t>are speaking to you in your native tongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is yelling at </t>
-  </si>
-  <si>
-    <t xml:space="preserve">is looking for </t>
-  </si>
-  <si>
-    <t xml:space="preserve">is fixing </t>
-  </si>
-  <si>
-    <t>is cleaning his weapon</t>
-  </si>
-  <si>
-    <t>is doing push up at…</t>
-  </si>
-  <si>
     <t>is that guy!</t>
   </si>
   <si>
-    <t>is hiding behind.</t>
-  </si>
-  <si>
-    <t>is fondly looking at you</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -276,9 +237,6 @@
     <t>A loving Kiss</t>
   </si>
   <si>
-    <t>You're head is foggy from romance, or is it the WhiteClaws?</t>
-  </si>
-  <si>
     <t>useRespone</t>
   </si>
   <si>
@@ -333,27 +291,9 @@
     <t>laundry room</t>
   </si>
   <si>
-    <t>contain full of brass and whiteclaws</t>
-  </si>
-  <si>
-    <t>just full of your hopes and dreams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be your personal safe place </t>
-  </si>
-  <si>
-    <t>is a place always rips you off</t>
-  </si>
-  <si>
-    <t>is a perfect place to hide contrabands</t>
-  </si>
-  <si>
     <t>Drill SGT Tourniquette</t>
   </si>
   <si>
-    <t>is CLS instructor and will add game interface here</t>
-  </si>
-  <si>
     <t>North</t>
   </si>
   <si>
@@ -435,42 +375,18 @@
     <t>you can make things more deader better than most jokers in your platoon</t>
   </si>
   <si>
-    <t>at least you hit a bit more than half targets at Range</t>
-  </si>
-  <si>
-    <t>you feel like your are the most lethal weapon of United State Army</t>
-  </si>
-  <si>
     <t>chow hall</t>
   </si>
   <si>
     <t>Natural Lime White Claw,Ruby Grapefruit White Claw,Black Cherry White Claw,Mango White Claw,Diamond Ring</t>
   </si>
   <si>
-    <t>It's size is twice as big as your pay check</t>
-  </si>
-  <si>
     <t>diamond ring</t>
   </si>
   <si>
     <t>Drill SGT Tourniquet</t>
   </si>
   <si>
-    <t>Always point your rifle down range; click to shoot; if you cannot shoot, you are probably very good at doing details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always wear your PT belt to stay safe; use your Racquet to hit the bouncing ball only! Don't use it on your battle buddies; if you fail the game, you will be voluntold to details   </t>
-  </si>
-  <si>
-    <t>You must find at least 70% right answer in order to pass the exam; if you fail the exam, you are going to do some "corrective training" with me</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>check for SOM game</t>
-  </si>
-  <si>
     <t>Soldier of Month Certificate</t>
   </si>
   <si>
@@ -487,13 +403,97 @@
   </si>
   <si>
     <t>playerItem</t>
+  </si>
+  <si>
+    <t>glances at you lovingly.</t>
+  </si>
+  <si>
+    <t>is yelling at new guys.</t>
+  </si>
+  <si>
+    <t>is the CLS instructor and is schooling new guys on combat lifesaver stuff.</t>
+  </si>
+  <si>
+    <t>is running a stress shoot.</t>
+  </si>
+  <si>
+    <t>is cleaning his weapon.</t>
+  </si>
+  <si>
+    <t>is doing handstand pushups.</t>
+  </si>
+  <si>
+    <t>is hiding behind the porta john. He looks at you with crazy eyes.</t>
+  </si>
+  <si>
+    <t>is speaking to you in your native tongue. “Next one! Whatchu havin'?”</t>
+  </si>
+  <si>
+    <t>Always wear your PT belt to stay safe; use your racket to hit the bouncing ball only! Don't use it on your battle buddies; if you fail the game, you will be voluntold to details.</t>
+  </si>
+  <si>
+    <t>Always point your rifle down range; click to shoot; if you cannot shoot, you will probably be very good at details and area beautification!</t>
+  </si>
+  <si>
+    <t>You must answer 6 out of 8 questions to pass the exam; if you fail the exam, you are going to do some "corrective training" with me!</t>
+  </si>
+  <si>
+    <t>container full of brass and whiteclaws</t>
+  </si>
+  <si>
+    <t>full of your hopes and dreams</t>
+  </si>
+  <si>
+    <t>is the perfect place to hide contraband.</t>
+  </si>
+  <si>
+    <t>is your personal safe place. Make sure it's dress right, dress!</t>
+  </si>
+  <si>
+    <t>is a ripoff!</t>
+  </si>
+  <si>
+    <t>Your head is foggy from romance, or is it the WhiteClaws?</t>
+  </si>
+  <si>
+    <t>you feel like you are the most lethal weapon of United State Army</t>
+  </si>
+  <si>
+    <t>at least you hit a bit more than half the targets at the range</t>
+  </si>
+  <si>
+    <t>Its size is twice as big as your pay check</t>
+  </si>
+  <si>
+    <t>It smells of gym socks, CLP, and peanut butter.</t>
+  </si>
+  <si>
+    <t>You see a barber shop, an eyebrow threading station, and a GNC. You look far to the WEST and see a silhouette of a full-bodied individual.</t>
+  </si>
+  <si>
+    <t>You're accosted by the smells of oxyclean and bleach. Stuffed in the corner is a copious amount of green laundry bags</t>
+  </si>
+  <si>
+    <t>For miles, it has a scent the likes of which you will never forget.</t>
+  </si>
+  <si>
+    <t>At first glance, you don’t see anything through the misty night, but out from the shadows appears your AIT lover - You’re elated! They ask, “How many white claws did you bring me” and give you the lovers' eyes.</t>
+  </si>
+  <si>
+    <t>is looking into soldiers' footlockers for contraband</t>
+  </si>
+  <si>
+    <t>Military Clothing &amp; Class 5</t>
+  </si>
+  <si>
+    <t>white claw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,9 +528,37 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="58"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,19 +578,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{5DFAFB3A-6921-1047-845A-48209AC75805}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -875,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -892,65 +926,65 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
@@ -958,145 +992,150 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19">
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19">
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="C15" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="19">
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="19">
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="19">
+      <c r="C20" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1148,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1123,16 +1162,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1146,26 +1185,26 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
+      <c r="F3" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19">
@@ -1174,111 +1213,111 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
+      <c r="F4" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
+      <c r="F6" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="F10" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -1286,8 +1325,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
+      <c r="F11" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1339,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1311,168 +1350,168 @@
   <sheetData>
     <row r="1" spans="1:3" ht="19">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="19">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="19">
       <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="19">
       <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="19">
       <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="19">
       <c r="A6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="19">
       <c r="A7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="19">
       <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="19">
       <c r="A9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="19">
       <c r="A10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="19">
       <c r="A11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="19">
       <c r="A12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="19">
       <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="19">
       <c r="A14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19">
       <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19">
       <c r="A16" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19">
       <c r="A17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19">
       <c r="A18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1524,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1498,111 +1537,104 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
       <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
       <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19">
       <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
       <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19">
       <c r="A7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19">
-      <c r="A8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1626,24 +1658,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1688,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1676,150 +1708,150 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1864,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1843,31 +1875,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/resources/gameBook.xlsx
+++ b/resources/gameBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhhongxi/Desktop/LoversQuest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11161036-5A9B-674A-ABCB-C1F36A1EFE73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FEDB59-44E6-A445-87D4-2DCDD1D077D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="35840" windowHeight="20420" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="35840" windowHeight="19620" activeTab="5" xr2:uid="{441C05F4-22D2-7348-A0BD-AC64BB4D47F4}"/>
   </bookViews>
   <sheets>
     <sheet name="objInGame" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>laundry room</t>
-  </si>
-  <si>
-    <t>Drill SGT Tourniquette</t>
   </si>
   <si>
     <t>North</t>
@@ -911,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51334EF7-C71C-3B45-98D3-0385A5E3D9BA}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -926,25 +923,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19">
@@ -961,13 +958,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
@@ -984,7 +981,7 @@
         <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
@@ -1001,12 +998,12 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>71</v>
@@ -1018,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
@@ -1029,7 +1026,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1043,7 +1040,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1054,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -1065,7 +1062,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -1110,32 +1107,32 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18">
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="3:3" ht="19">
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="19">
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="19">
       <c r="C20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1201,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19">
@@ -1220,7 +1217,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19">
@@ -1252,7 +1249,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19">
@@ -1296,7 +1293,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19">
@@ -1326,7 +1323,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1392,7 @@
     </row>
     <row r="6" spans="1:3" ht="19">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -1404,7 +1401,7 @@
     </row>
     <row r="7" spans="1:3" ht="19">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>54</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="8" spans="1:3" ht="19">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -1422,7 +1419,7 @@
     </row>
     <row r="9" spans="1:3" ht="19">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
@@ -1470,48 +1467,48 @@
         <v>65</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="19">
       <c r="A15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19">
       <c r="A16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19">
       <c r="A18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1551,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -1568,7 +1565,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
@@ -1585,7 +1582,7 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19">
@@ -1593,7 +1590,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -1607,7 +1604,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -1618,13 +1615,13 @@
     </row>
     <row r="7" spans="1:4" ht="19">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -1661,18 +1658,18 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -1687,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF017B32-F13C-9940-ADCC-028F3D0515B4}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1719,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>37</v>
@@ -1733,7 +1730,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
@@ -1747,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>41</v>
@@ -1758,10 +1755,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -1775,7 +1772,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
@@ -1789,7 +1786,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -1803,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>41</v>
@@ -1831,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
@@ -1845,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1875,31 +1872,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
